--- a/output/Times/article6_Times.xlsx
+++ b/output/Times/article6_Times.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C2" t="n">
-        <v>399</v>
+        <v>644</v>
       </c>
       <c r="D2" t="n">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C3" t="n">
-        <v>445</v>
+        <v>690</v>
       </c>
       <c r="D3" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C4" t="n">
-        <v>1089</v>
+        <v>1334</v>
       </c>
       <c r="D4" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" t="n">
         <v>23</v>
@@ -527,7 +527,7 @@
         <v>446</v>
       </c>
       <c r="C5" t="n">
-        <v>1112</v>
+        <v>1357</v>
       </c>
       <c r="D5" t="n">
         <v>115</v>

--- a/output/Times/article6_Times.xlsx
+++ b/output/Times/article6_Times.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>February Revolution . The second was the October Revolution.</t>
+          <t xml:space="preserve">February </t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -473,7 +473,7 @@
         <v>644</v>
       </c>
       <c r="D2" t="n">
-        <v>536</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
@@ -482,17 +482,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>czarist government.</t>
+          <t xml:space="preserve">Revolution </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501</v>
+        <v>152</v>
       </c>
       <c r="C3" t="n">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="D3" t="n">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
@@ -501,17 +501,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Russian Civil War. </t>
+          <t xml:space="preserve">. </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>819</v>
+        <v>248</v>
       </c>
       <c r="C4" t="n">
-        <v>1334</v>
+        <v>669</v>
       </c>
       <c r="D4" t="n">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v>23</v>
@@ -520,19 +520,247 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soviet Union </t>
+          <t xml:space="preserve">The </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>446</v>
+        <v>259</v>
       </c>
       <c r="C5" t="n">
-        <v>1357</v>
+        <v>669</v>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">second </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>298</v>
+      </c>
+      <c r="C6" t="n">
+        <v>669</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">was </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>366</v>
+      </c>
+      <c r="C7" t="n">
+        <v>669</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>406</v>
+      </c>
+      <c r="C8" t="n">
+        <v>669</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>438</v>
+      </c>
+      <c r="C9" t="n">
+        <v>669</v>
+      </c>
+      <c r="D9" t="n">
+        <v>74</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Revolution.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>512</v>
+      </c>
+      <c r="C10" t="n">
+        <v>669</v>
+      </c>
+      <c r="D10" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">czarist </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>501</v>
+      </c>
+      <c r="C11" t="n">
+        <v>710.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>61</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>government.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>562</v>
+      </c>
+      <c r="C12" t="n">
+        <v>710.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>107</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Russian </t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>819</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1324.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Civil </t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>894</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1324.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">War. </t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>152</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1349.4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>45</v>
+      </c>
+      <c r="E15" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soviet </t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>491</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1349.4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>59</v>
+      </c>
+      <c r="E16" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Union </t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>550</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1349.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>56</v>
+      </c>
+      <c r="E17" t="n">
         <v>23</v>
       </c>
     </row>
